--- a/reports/Comparativo Tipo Instrumento.xlsx
+++ b/reports/Comparativo Tipo Instrumento.xlsx
@@ -31,7 +31,7 @@
     <t>VALOR CARTERA</t>
   </si>
   <si>
-    <t>PARTICIPACION</t>
+    <t>PARTICIPACIÓN (%)</t>
   </si>
   <si>
     <t>JUNIO 2022</t>
@@ -219,7 +219,7 @@
     <xf applyFont="1" fontId="0" applyFill="1" fillId="4" applyBorder="1" borderId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyFont="1" fontId="4" applyFill="1" fillId="4" applyBorder="1" borderId="5" applyAlignment="1">
+    <xf applyFont="1" fontId="3" applyFill="1" fillId="4" applyBorder="1" borderId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -280,11 +280,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="1" max="1" width="52" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:5">
@@ -356,7 +356,7 @@
         <v>23265949.27</v>
       </c>
       <c r="E11" s="12" t="n">
-        <v>7.9304978776117965</v>
+        <v>7.985693822181411</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -373,7 +373,7 @@
         <v>23170234.42</v>
       </c>
       <c r="E12" s="12" t="n">
-        <v>7.897872240635973</v>
+        <v>7.952841112091408</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -387,10 +387,10 @@
         <v>0</v>
       </c>
       <c r="D13" s="12" t="n">
-        <v>26035906.43</v>
+        <v>24008154.43</v>
       </c>
       <c r="E13" s="12" t="n">
-        <v>8.874673381629629</v>
+        <v>8.240444792890596</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -407,7 +407,7 @@
         <v>29842397.4</v>
       </c>
       <c r="E14" s="12" t="n">
-        <v>10.172164758766698</v>
+        <v>10.242962614190493</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -424,7 +424,7 @@
         <v>177465174.75</v>
       </c>
       <c r="E15" s="12" t="n">
-        <v>60.49128601512168</v>
+        <v>60.91230291990659</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -441,7 +441,7 @@
         <v>13593460.44</v>
       </c>
       <c r="E16" s="12" t="n">
-        <v>4.633505726234222</v>
+        <v>4.665754738739504</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -455,7 +455,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="22" t="n">
-        <v>293373122.71</v>
+        <v>291345370.71</v>
       </c>
       <c r="E17" s="22" t="n">
         <v>100</v>
